--- a/data/trans_bre/P42_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P42_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,31</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>15,25%</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,06%</t>
+          <t>-15,87%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>17,05%</t>
+          <t>-15,55%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>51,24%</t>
+          <t>-3,94%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>34,95%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-26,87%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 11,13</t>
+          <t>-5,28; 1,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,62; 5,92</t>
+          <t>-5,48; 1,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 3,76</t>
+          <t>-1,76; 1,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 5,32</t>
+          <t>-0,96; 2,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-16,49; 65,95</t>
+          <t>-0,61; 0,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-50,71; 70,54</t>
+          <t>-40,13; 18,53</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-41,81; 124,7</t>
+          <t>-58,73; 43,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-37,96; 197,94</t>
+          <t>-52,15; 98,43</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-37,34; 173,11</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>-1,95</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,87</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>15,63%</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>33,85%</t>
+          <t>-23,36%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>61,52%</t>
+          <t>-13,3%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>79,9%</t>
+          <t>14,76%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>29,11%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 9,09</t>
+          <t>-6,01; 0,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 6,93</t>
+          <t>-2,34; 1,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 3,32</t>
+          <t>-1,16; 1,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 3,5</t>
+          <t>-0,83; 1,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-29,59; 71,96</t>
+          <t>0,0; 1,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-40,37; 182,52</t>
+          <t>-54,14; 14,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-62,17; 507,41</t>
+          <t>-59,2; 79,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-43,94; 685,37</t>
+          <t>-80,05; 359,27</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-62,98; 356,85</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,64</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,44</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,02</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>197,78%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>176,84%</t>
+          <t>129,96%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>278,58%</t>
+          <t>118,84%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>152,85%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,40 +934,50 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,18; 23,95</t>
+          <t>-1,03; 7,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 15,2</t>
+          <t>-1,98; 3,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 12,68</t>
+          <t>-1,13; 3,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,7</t>
+          <t>0,0; 3,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-15,95; 991,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
+          <t>-40,71; 790,53</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I9" s="2" t="inlineStr">
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J9" s="2" t="inlineStr">
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,06</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>23,23%</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>16,03%</t>
+          <t>-12,83%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>43,25%</t>
+          <t>-9,74%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>73,58%</t>
+          <t>9,13%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>42,37%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>90,09%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 8,69</t>
+          <t>-3,75; 0,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 5,3</t>
+          <t>-2,68; 1,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 3,22</t>
+          <t>-0,77; 1,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 3,81</t>
+          <t>-0,32; 1,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 57,97</t>
+          <t>-0,15; 0,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-35,61; 81,12</t>
+          <t>-34,08; 13,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-19,67; 162,46</t>
+          <t>-46,49; 42,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-15,44; 216,55</t>
+          <t>-35,47; 105,83</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-21,42; 169,77</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,9 +1114,9 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P42_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P42_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,229 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,78</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,98</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,1</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,71</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-0,04</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-15,87%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-15,55%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-3,94%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>34,95%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-26,87%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>3.313329960409417</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.378813720511556</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.6804819909555435</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>2.412827751625122</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.01987476519908428</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.1525669523753082</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.02965111068402828</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.1480604456227993</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.6547579142606987</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.07808761453520721</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-5,28; 1,77</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-5,48; 1,83</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,76; 1,5</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-0,96; 2,15</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-0,61; 0,23</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-40,13; 18,53</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-58,73; 43,12</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-52,15; 98,43</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-37,34; 173,11</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-4.102440175985269</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-10.80373284680415</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-2.887061278215798</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.7789510631605737</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.8123031723245567</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.1615315899856116</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.5680145287894159</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.4393764055490535</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.1728209859531575</v>
+      </c>
+      <c r="L5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>10.48620481800038</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>6.093481653234486</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>3.751082367157033</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>5.508332323212107</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.4817251351114555</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.5811329078829909</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.7391490886654818</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.327395740148969</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>2.65187159658514</v>
+      </c>
+      <c r="L6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-1,95</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,41</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,13</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,24</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,21</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-23,36%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-13,3%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>14,76%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>29,11%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-6,01; 0,96</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-2,34; 1,57</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,16; 1,15</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-0,83; 1,33</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,33</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-54,14; 14,17</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-59,2; 79,65</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-80,05; 359,27</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-62,98; 356,85</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+      <c r="C7" s="5" t="n">
+        <v>2.436305708081479</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>2.135080397523418</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.9595501542558067</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>1.132762242596255</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.4039853606688805</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.1561710497650119</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.3915392047229129</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.6494343646634193</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.807555501835048</v>
+      </c>
+      <c r="L7" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>3,32</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,14</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,86</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,55</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>129,96%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>118,84%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>152,85%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-4.661176249933731</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-2.226272211420988</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-1.112540188033496</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.7542727407627239</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.2520634015394392</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.3534346303303188</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.6173336266635016</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.4948461002590796</v>
+      </c>
+      <c r="L8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-1,03; 7,7</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,98; 3,9</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,13; 3,67</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 3,15</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-40,71; 790,53</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>9.487531842000783</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>7.420832435887467</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>3.336698560045216</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>3.371300546584871</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>2.067728461974137</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.7914731500810678</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>2.03257982269588</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>5.345789157300796</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>5.938956230347751</v>
+      </c>
+      <c r="L9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,117 +873,209 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-1,15</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,42</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,15</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,55</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,07</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-12,83%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-9,74%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>9,13%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>42,37%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>90,09%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>11.63661611846606</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>4.748951394606289</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>2.820172081481817</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>1.31209320188341</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>1.97782898282408</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>2.545340867239044</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>2.646931904605892</v>
+      </c>
+      <c r="K10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-3,75; 0,98</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,68; 1,34</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,77; 1,07</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-0,32; 1,53</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-0,15; 0,36</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-34,08; 13,55</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-46,49; 42,67</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-35,47; 105,83</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-21,42; 169,77</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>1.617137515148715</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-1.739721363496413</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-1.082817945484529</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="6" t="n">
+        <v>-0.1175875037637561</v>
+      </c>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
+      <c r="K11" s="6" t="inlineStr"/>
+      <c r="L11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>24.03796010354601</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>14.507823104265</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>12.42527450741129</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>7.130634917296443</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="6" t="n">
+        <v>10.62600972099934</v>
+      </c>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+      <c r="K12" s="6" t="inlineStr"/>
+      <c r="L12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>4.064949120388422</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.566977877508266</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.189474575946205</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1.974105851397595</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.1573012270148086</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.2323020651901392</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.1831896952186822</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.4099966104280454</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.8626867861151234</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>1.306898392380574</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.6424432110595917</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-3.5878775432364</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.630438608244831</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.3615937566211562</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.2164964151996363</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.0428777039877998</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.3373525247559666</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.2045174886268698</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.04081771972002443</v>
+      </c>
+      <c r="L14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>8.734065504146443</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>5.183133675889661</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>3.130338205279771</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>3.951615644436015</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.7484756534660124</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.5792757681962805</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.7739124288326101</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.458067782919499</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>2.426900474998174</v>
+      </c>
+      <c r="L15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1112,13 +1083,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
